--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\UdeA\S3 2023-1\INFO II\TEORIA\_REPOSITORIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndresRivera\REPOSITORIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>FEBRERO</t>
   </si>
@@ -90,12 +90,15 @@
   </si>
   <si>
     <t>Informática II</t>
+  </si>
+  <si>
+    <t>BORRADOR1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,7 +593,7 @@
   <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1693,9 @@
       <c r="AN23" s="12"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="17">
         <v>0.91666666666666696</v>

--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>FEBRERO</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>BORRADOR1</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES (pathPRUEBA1):</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -309,6 +312,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,21 +1800,211 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+      <c r="A30" s="32"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="A31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+      <c r="A32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
@@ -1838,7 +2037,9 @@
       <c r="C42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="C28:AN32"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A3:AN3"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>

--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>FEBRERO</t>
   </si>
@@ -94,6 +94,27 @@
   <si>
     <t>BORRADOR1</t>
   </si>
+  <si>
+    <t>OBSERVACIONES SEMANA 1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Más tiempo implicado TAREAS</t>
+  </si>
+  <si>
+    <t>Imprevistos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Muchas actividades a realizar de la universidadtomaron mucho tiempo desarrollandolas, no tengo tanta destreza para áreas queimplican calculoso procesos matematicos .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3) La poca destreza quetengo  en el contesto de ser organizado tampoco es que ayude de a mucho.</t>
+  </si>
+  <si>
+    <t>2)  El equipo de computo que suelo utilizar tuvo problemas técnicos, lo cual limito más mi desempeño.</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +185,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -262,11 +295,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -282,7 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -309,6 +379,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:AN35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,169 +712,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29" t="s">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29" t="s">
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29" t="s">
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>11</v>
       </c>
       <c r="F6" s="7">
@@ -877,11 +984,11 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -995,7 +1102,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>0.25</v>
       </c>
       <c r="D8" s="14"/>
@@ -1041,7 +1148,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>0.29166666666666669</v>
       </c>
       <c r="D9" s="14"/>
@@ -1087,7 +1194,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>0.33333333333333298</v>
       </c>
       <c r="D10" s="14"/>
@@ -1098,7 +1205,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
@@ -1129,143 +1236,145 @@
       <c r="AN10" s="12"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>0.375</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="19"/>
+      <c r="S11" s="18"/>
       <c r="T11" s="5"/>
       <c r="U11" s="3"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="19"/>
+      <c r="Z11" s="18"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="19"/>
+      <c r="AG11" s="18"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="19"/>
+      <c r="AN11" s="18"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>0.41666666666666702</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="19"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="19"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="21"/>
+      <c r="U12" s="20"/>
       <c r="V12" s="3"/>
       <c r="W12" s="4"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="19"/>
+      <c r="Z12" s="18"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="21"/>
+      <c r="AB12" s="20"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="19"/>
+      <c r="AG12" s="18"/>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="21"/>
+      <c r="AI12" s="20"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="19"/>
+      <c r="AN12" s="18"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>0.45833333333333298</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="19"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="4"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="19"/>
+      <c r="Z13" s="18"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="19"/>
+      <c r="AG13" s="18"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="19"/>
+      <c r="AN13" s="18"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>0.5</v>
       </c>
       <c r="D14" s="14"/>
@@ -1276,7 +1385,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="12"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="4"/>
@@ -1309,40 +1418,40 @@
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>0.54166666666666696</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="3"/>
       <c r="O15" s="4"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="21"/>
+      <c r="T15" s="20"/>
       <c r="U15" s="3"/>
       <c r="V15" s="4"/>
       <c r="W15" s="3"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="12"/>
-      <c r="AA15" s="21"/>
+      <c r="AA15" s="20"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="12"/>
-      <c r="AH15" s="21"/>
+      <c r="AH15" s="20"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="3"/>
@@ -1353,7 +1462,7 @@
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>0.58333333333333304</v>
       </c>
       <c r="D16" s="14"/>
@@ -1364,7 +1473,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="12"/>
+      <c r="L16" s="39"/>
       <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
@@ -1395,53 +1504,55 @@
       <c r="AN16" s="12"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="30" t="s">
+        <v>25</v>
+      </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>0.625</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="23"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="5"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="23"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="5"/>
       <c r="U17" s="4"/>
       <c r="V17" s="3"/>
       <c r="W17" s="4"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="23"/>
+      <c r="Z17" s="22"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="23"/>
+      <c r="AG17" s="22"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="23"/>
+      <c r="AN17" s="22"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>0.66666666666666696</v>
       </c>
       <c r="D18" s="14"/>
@@ -1485,139 +1596,141 @@
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>0.70833333333333404</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="21"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="21"/>
+      <c r="W19" s="20"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="19"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="21"/>
+      <c r="AD19" s="20"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="19"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="5"/>
-      <c r="AK19" s="21"/>
+      <c r="AK19" s="20"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="19"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>0.75</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="5"/>
       <c r="N20" s="3"/>
       <c r="O20" s="5"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="20"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="5"/>
       <c r="U20" s="3"/>
       <c r="V20" s="5"/>
       <c r="W20" s="3"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="20"/>
+      <c r="Z20" s="19"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="3"/>
-      <c r="AG20" s="20"/>
+      <c r="AG20" s="19"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="3"/>
-      <c r="AN20" s="20"/>
+      <c r="AN20" s="19"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>0.79166666666666696</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="20"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="20"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="20"/>
+      <c r="Z21" s="19"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="20"/>
+      <c r="AG21" s="19"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="5"/>
-      <c r="AN21" s="20"/>
+      <c r="AN21" s="19"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>0.83333333333333404</v>
       </c>
       <c r="D22" s="14"/>
@@ -1627,7 +1740,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="12"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="P22" s="5"/>
@@ -1654,20 +1767,20 @@
       <c r="AN22" s="12"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="17">
+      <c r="A23" s="3"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="16">
         <v>0.875</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="3"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -1693,70 +1806,70 @@
       <c r="AN23" s="12"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="17">
+      <c r="B24" s="33"/>
+      <c r="C24" s="35">
         <v>0.91666666666666696</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17">
+      <c r="A25" s="3"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="38">
         <v>0.95833333333333404</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="P25" s="6"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -1783,62 +1896,1027 @@
       <c r="AN25" s="3"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="C26" s="38">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="C27" s="38">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="C28" s="38">
+        <v>1.0833333333333399</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="C29" s="38">
+        <v>1.12500000000001</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+      <c r="A30" s="3"/>
+      <c r="C30" s="38">
+        <v>1.1666666666666801</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="C31" s="38">
+        <v>1.2083333333333499</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="C35" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="C37" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="48"/>
+      <c r="AP37" s="46"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="45"/>
+      <c r="AN38" s="45"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+      <c r="AN39" s="49"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="45"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="49"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="49"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="49"/>
+      <c r="AI41" s="49"/>
+      <c r="AJ41" s="49"/>
+      <c r="AK41" s="49"/>
+      <c r="AL41" s="49"/>
+      <c r="AM41" s="49"/>
+      <c r="AN41" s="49"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="45"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="45"/>
+      <c r="AK42" s="45"/>
+      <c r="AL42" s="45"/>
+      <c r="AM42" s="45"/>
+      <c r="AN42" s="45"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="49"/>
+      <c r="AL43" s="49"/>
+      <c r="AM43" s="49"/>
+      <c r="AN43" s="49"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="45"/>
+      <c r="AI44" s="45"/>
+      <c r="AJ44" s="45"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="45"/>
+      <c r="AM44" s="45"/>
+      <c r="AN44" s="45"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="45"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="45"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="45"/>
+      <c r="AM45" s="45"/>
+      <c r="AN45" s="45"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="45"/>
+      <c r="AG46" s="45"/>
+      <c r="AH46" s="45"/>
+      <c r="AI46" s="45"/>
+      <c r="AJ46" s="45"/>
+      <c r="AK46" s="45"/>
+      <c r="AL46" s="45"/>
+      <c r="AM46" s="45"/>
+      <c r="AN46" s="45"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
+      <c r="AJ47" s="45"/>
+      <c r="AK47" s="45"/>
+      <c r="AL47" s="45"/>
+      <c r="AM47" s="45"/>
+      <c r="AN47" s="45"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="45"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="45"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="45"/>
+      <c r="AH49" s="45"/>
+      <c r="AI49" s="45"/>
+      <c r="AJ49" s="45"/>
+      <c r="AK49" s="45"/>
+      <c r="AL49" s="45"/>
+      <c r="AM49" s="45"/>
+      <c r="AN49" s="45"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="45"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="45"/>
+      <c r="AM50" s="45"/>
+      <c r="AN50" s="45"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C51" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C33:AN33"/>
+    <mergeCell ref="C35:AN35"/>
+    <mergeCell ref="C37:AN37"/>
+    <mergeCell ref="C39:AN39"/>
+    <mergeCell ref="C41:AN41"/>
+    <mergeCell ref="C43:AN43"/>
+    <mergeCell ref="A33:A43"/>
     <mergeCell ref="A3:AN3"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>

--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>FEBRERO</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>2)  El equipo de computo que suelo utilizar tuvo problemas técnicos, lo cual limito más mi desempeño.</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES SEMANA 2 (Proposito disminuir tiempos)</t>
+  </si>
+  <si>
+    <t>1) El equipo de computo continua presentando problemas técnicos.</t>
+  </si>
+  <si>
+    <t>2) Mi manera de adoptar nuevo conocimiento es bastante lenta, por ello requiere de mas tiempo.</t>
+  </si>
+  <si>
+    <t>3) Al realizar las compras necessaria del hogar, el viernes se horario de dedicado a estudio inicio desde las 20:00 horas</t>
+  </si>
+  <si>
+    <t>El proposito de está semana era disminuir tiempo en las tareas realizadas, pero en vez de disminuir voy aumentando; que ironia.</t>
   </si>
 </sst>
 </file>
@@ -362,6 +377,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,43 +430,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:AN35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,157 +737,157 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="13"/>
       <c r="C4" s="15"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28" t="s">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28" t="s">
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28" t="s">
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="26"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="14"/>
       <c r="E6" s="17">
         <v>11</v>
@@ -984,9 +999,9 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="14"/>
       <c r="E7" s="17" t="s">
         <v>12</v>
@@ -1167,7 +1182,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="24"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1213,7 +1228,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="24"/>
       <c r="U10" s="3"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -1326,7 +1341,7 @@
       <c r="AN12" s="18"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="14"/>
@@ -1392,7 +1407,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="18"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="4"/>
@@ -1429,7 +1444,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="39"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="20"/>
       <c r="N15" s="3"/>
       <c r="O15" s="4"/>
@@ -1473,14 +1488,14 @@
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="39"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="31"/>
       <c r="T16" s="5"/>
       <c r="U16" s="4"/>
       <c r="V16" s="3"/>
@@ -1504,7 +1519,7 @@
       <c r="AN16" s="12"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="14"/>
@@ -1522,9 +1537,9 @@
       <c r="L17" s="22"/>
       <c r="M17" s="5"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="24"/>
       <c r="R17" s="4"/>
       <c r="S17" s="22"/>
       <c r="T17" s="5"/>
@@ -1550,7 +1565,7 @@
       <c r="AN17" s="22"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="14"/>
       <c r="C18" s="16">
         <v>0.66666666666666696</v>
@@ -1615,7 +1630,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="20"/>
       <c r="S19" s="19"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="24"/>
       <c r="U19" s="3"/>
       <c r="V19" s="5"/>
       <c r="W19" s="20"/>
@@ -1646,7 +1661,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="19"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="32"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="5"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
@@ -1657,7 +1672,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="19"/>
       <c r="T20" s="5"/>
       <c r="U20" s="3"/>
@@ -1701,7 +1716,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="5"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="19"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -1740,9 +1755,10 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="39"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -1768,25 +1784,26 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="16">
         <v>0.875</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="41"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="33"/>
       <c r="N23" s="3"/>
+      <c r="O23" s="49"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="24"/>
       <c r="U23" s="3"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -1809,27 +1826,27 @@
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="35">
+      <c r="B24" s="25"/>
+      <c r="C24" s="27">
         <v>0.91666666666666696</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -1853,27 +1870,27 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="38">
+      <c r="B25" s="26"/>
+      <c r="C25" s="30">
         <v>0.95833333333333404</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -1897,26 +1914,26 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="C26" s="38">
+      <c r="C26" s="30">
         <v>1</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="32"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="24"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -1940,19 +1957,19 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="C27" s="38">
+      <c r="C27" s="30">
         <v>1.0416666666666701</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="32"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="32"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1983,7 +2000,7 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="C28" s="38">
+      <c r="C28" s="30">
         <v>1.0833333333333399</v>
       </c>
       <c r="D28" s="3"/>
@@ -1995,7 +2012,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="32"/>
+      <c r="M28" s="24"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2026,7 +2043,7 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="C29" s="38">
+      <c r="C29" s="30">
         <v>1.12500000000001</v>
       </c>
       <c r="D29" s="3"/>
@@ -2069,7 +2086,7 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="C30" s="38">
+      <c r="C30" s="30">
         <v>1.1666666666666801</v>
       </c>
       <c r="D30" s="3"/>
@@ -2112,7 +2129,7 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="C31" s="38">
+      <c r="C31" s="30">
         <v>1.2083333333333499</v>
       </c>
       <c r="D31" s="3"/>
@@ -2158,762 +2175,983 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="48"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="40"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
+      <c r="A34" s="42"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="35"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="35"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="C35" s="48" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="48"/>
-      <c r="AN35" s="48"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="40"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
+      <c r="A36" s="42"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="C37" s="48" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="48"/>
-      <c r="AN37" s="48"/>
-      <c r="AP37" s="46"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="40"/>
+      <c r="AK37" s="40"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="40"/>
+      <c r="AP37" s="36"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="45"/>
-      <c r="AM38" s="45"/>
-      <c r="AN38" s="45"/>
+      <c r="A38" s="42"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="49"/>
-      <c r="AL39" s="49"/>
-      <c r="AM39" s="49"/>
-      <c r="AN39" s="49"/>
+      <c r="A39" s="42"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45"/>
+      <c r="A40" s="42"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="49"/>
-      <c r="AA41" s="49"/>
-      <c r="AB41" s="49"/>
-      <c r="AC41" s="49"/>
-      <c r="AD41" s="49"/>
-      <c r="AE41" s="49"/>
-      <c r="AF41" s="49"/>
-      <c r="AG41" s="49"/>
-      <c r="AH41" s="49"/>
-      <c r="AI41" s="49"/>
-      <c r="AJ41" s="49"/>
-      <c r="AK41" s="49"/>
-      <c r="AL41" s="49"/>
-      <c r="AM41" s="49"/>
-      <c r="AN41" s="49"/>
+      <c r="A41" s="42"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41"/>
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="45"/>
-      <c r="AK42" s="45"/>
-      <c r="AL42" s="45"/>
-      <c r="AM42" s="45"/>
-      <c r="AN42" s="45"/>
+      <c r="A42" s="42"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="35"/>
+      <c r="AN42" s="35"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="49"/>
-      <c r="AK43" s="49"/>
-      <c r="AL43" s="49"/>
-      <c r="AM43" s="49"/>
-      <c r="AN43" s="49"/>
+      <c r="A43" s="42"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="41"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
+      <c r="AK43" s="41"/>
+      <c r="AL43" s="41"/>
+      <c r="AM43" s="41"/>
+      <c r="AN43" s="41"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="45"/>
-      <c r="AN44" s="45"/>
+      <c r="A44" s="37"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+      <c r="AI44" s="35"/>
+      <c r="AJ44" s="35"/>
+      <c r="AK44" s="35"/>
+      <c r="AL44" s="35"/>
+      <c r="AM44" s="35"/>
+      <c r="AN44" s="35"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="45"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="45"/>
-      <c r="AH45" s="45"/>
-      <c r="AI45" s="45"/>
-      <c r="AJ45" s="45"/>
-      <c r="AK45" s="45"/>
-      <c r="AL45" s="45"/>
-      <c r="AM45" s="45"/>
-      <c r="AN45" s="45"/>
+      <c r="A45" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
+      <c r="AK45" s="40"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="40"/>
+      <c r="AN45" s="40"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="45"/>
-      <c r="AG46" s="45"/>
-      <c r="AH46" s="45"/>
-      <c r="AI46" s="45"/>
-      <c r="AJ46" s="45"/>
-      <c r="AK46" s="45"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
+      <c r="A46" s="42"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="45"/>
-      <c r="AG47" s="45"/>
-      <c r="AH47" s="45"/>
-      <c r="AI47" s="45"/>
-      <c r="AJ47" s="45"/>
-      <c r="AK47" s="45"/>
-      <c r="AL47" s="45"/>
-      <c r="AM47" s="45"/>
-      <c r="AN47" s="45"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="40"/>
+      <c r="AN47" s="40"/>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AE48" s="45"/>
-      <c r="AF48" s="45"/>
-      <c r="AG48" s="45"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="45"/>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
+      <c r="A48" s="42"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="45"/>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="45"/>
-      <c r="AH49" s="45"/>
-      <c r="AI49" s="45"/>
-      <c r="AJ49" s="45"/>
-      <c r="AK49" s="45"/>
-      <c r="AL49" s="45"/>
-      <c r="AM49" s="45"/>
-      <c r="AN49" s="45"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="40"/>
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="40"/>
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="40"/>
+      <c r="AI49" s="40"/>
+      <c r="AJ49" s="40"/>
+      <c r="AK49" s="40"/>
+      <c r="AL49" s="40"/>
+      <c r="AM49" s="40"/>
+      <c r="AN49" s="40"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="45"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="45"/>
+      <c r="A50" s="42"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C51" s="43"/>
+      <c r="A51" s="42"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41"/>
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41"/>
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+      <c r="AK51" s="41"/>
+      <c r="AL51" s="41"/>
+      <c r="AM51" s="41"/>
+      <c r="AN51" s="41"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41"/>
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41"/>
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="41"/>
+      <c r="AL53" s="41"/>
+      <c r="AM53" s="41"/>
+      <c r="AN53" s="41"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="35"/>
+      <c r="AN54" s="35"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="40"/>
+      <c r="AC55" s="40"/>
+      <c r="AD55" s="40"/>
+      <c r="AE55" s="40"/>
+      <c r="AF55" s="40"/>
+      <c r="AG55" s="40"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="40"/>
+      <c r="AJ55" s="40"/>
+      <c r="AK55" s="40"/>
+      <c r="AL55" s="40"/>
+      <c r="AM55" s="40"/>
+      <c r="AN55" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C33:AN33"/>
-    <mergeCell ref="C35:AN35"/>
-    <mergeCell ref="C37:AN37"/>
-    <mergeCell ref="C39:AN39"/>
+  <mergeCells count="26">
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="C45:AN45"/>
+    <mergeCell ref="C47:AN47"/>
+    <mergeCell ref="C49:AN49"/>
+    <mergeCell ref="C51:AN51"/>
+    <mergeCell ref="C53:AN53"/>
+    <mergeCell ref="C55:AN55"/>
     <mergeCell ref="C41:AN41"/>
     <mergeCell ref="C43:AN43"/>
     <mergeCell ref="A33:A43"/>
@@ -2928,6 +3166,11 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C33:AN33"/>
+    <mergeCell ref="C35:AN35"/>
+    <mergeCell ref="C37:AN37"/>
+    <mergeCell ref="C39:AN39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
